--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\pyAutoTest\autoPy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA917FFB-EAD7-42FE-BD9E-1B95C31DCE70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA311819-A2A5-493A-962D-608C341B1E63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
   <si>
     <t>用例编号</t>
   </si>
@@ -489,10 +489,6 @@
   </si>
   <si>
     <t>/api/department/my</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1569,6 +1565,13 @@
   <si>
     <t>access_log:1|access_log:2|demand:1</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -1702,23 +1705,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1998,29 +2001,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="13"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="56.44140625" customWidth="1"/>
-    <col min="11" max="11" width="62.6640625" customWidth="1"/>
-    <col min="12" max="12" width="41.109375" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="56.42578125" customWidth="1"/>
+    <col min="11" max="11" width="62.7109375" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2066,8 +2069,11 @@
       <c r="O1" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -2099,10 +2105,10 @@
         <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>32</v>
@@ -2134,7 +2140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12" customHeight="1">
+    <row r="4" spans="1:16" ht="12" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>32</v>
@@ -2162,7 +2168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:16" ht="16.5">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>32</v>
@@ -2188,18 +2194,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>32</v>
@@ -2208,42 +2214,42 @@
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="16.5">
+      <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
@@ -2252,30 +2258,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
       </c>
       <c r="M8" t="s">
         <v>37</v>
@@ -2284,30 +2290,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:16" ht="16.5">
       <c r="A9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
         <v>59</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
@@ -2316,18 +2322,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
@@ -2336,7 +2342,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -2348,18 +2354,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:16" ht="16.5">
       <c r="A11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>32</v>
@@ -2374,18 +2380,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>32</v>
@@ -2401,33 +2407,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1">
+    <row r="13" spans="1:16" ht="21.75" customHeight="1">
       <c r="A13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="M13" t="s">
         <v>37</v>
@@ -2436,18 +2442,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15">
+    <row r="14" spans="1:16" ht="16.5">
       <c r="A14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>32</v>
@@ -2456,13 +2462,13 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
@@ -2471,36 +2477,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="24.75" customHeight="1">
+    <row r="15" spans="1:16" ht="24.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
@@ -2509,18 +2515,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:16" ht="16.5">
       <c r="A16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>32</v>
@@ -2532,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s">
         <v>37</v>
@@ -2541,18 +2547,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14" ht="16.5">
       <c r="A17" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>32</v>
@@ -2569,107 +2575,107 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="27.6">
+    <row r="18" spans="1:14" ht="27.75">
       <c r="A18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" t="s">
         <v>37</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="27.6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="27.75">
       <c r="A19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" t="s">
         <v>37</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
@@ -2680,29 +2686,29 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21" t="s">
         <v>37</v>
@@ -2713,16 +2719,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>32</v>
@@ -2745,16 +2751,16 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>32</v>
@@ -2871,327 +2877,332 @@
       <selection activeCell="E11" sqref="E11:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="13" max="13" width="71.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="18"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="18"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="E11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="4:13" ht="30.9" customHeight="1">
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="4:13" ht="30.95" customHeight="1">
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="18"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -3203,11 +3214,6 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA311819-A2A5-493A-962D-608C341B1E63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF4BED-CA1A-4A1B-A480-5943BBE1E47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="125">
   <si>
     <t>用例编号</t>
   </si>
@@ -1567,11 +1567,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>version</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>迭代版本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.0|v1.0.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.1.0|v2.0.0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2004,7 +2012,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2069,8 +2077,8 @@
       <c r="O1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>121</v>
+      <c r="P1" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
@@ -2107,6 +2115,9 @@
       <c r="O2" t="s">
         <v>120</v>
       </c>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -2138,6 +2149,9 @@
       </c>
       <c r="N3" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1">
@@ -2695,7 +2709,7 @@
         <v>110</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>32</v>
